--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - INOVENTS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - INOVENTS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,10 +700,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>21874538</v>
+        <v>22250868</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>22780543</v>
+        <v>23117674</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -711,48 +711,48 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45741.47744212963</v>
+        <v>45803.52385416667</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45741.4802199074</v>
+        <v>45803.74337962963</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">152582-363483-E </t>
+          <t>57KO5G</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>TESTE INTEEGRA</t>
+          <t>SERVICO</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>Michelle Ribeiro Viana Brambilla</t>
+          <t>Elaine Cristina Martins</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>Michelle Ribeiro Viana Brambilla</t>
+          <t>Elaine Cristina Martins</t>
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45741.47708333333</v>
+        <v>45803.52361111111</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -771,32 +771,32 @@
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
-          <t>Pagamento direto</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
         <is>
-          <t>Hotel</t>
+          <t>Serviço</t>
         </is>
       </c>
       <c r="T2" s="5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="U2" s="5" t="inlineStr">
         <is>
-          <t>Grupo Acav</t>
+          <t>Grupo Inovents</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Acav - Associacao Brasileira dos Concessionarios Volkswagen Truck e Bus</t>
+          <t>Bat Souza Cruz</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Intercity Paulista</t>
+          <t>Itaimbe Palace Hotel</t>
         </is>
       </c>
       <c r="Y2" s="5" t="inlineStr">
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>152582</v>
+        <v>161323</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>0</v>
+        <v>144000</v>
       </c>
       <c r="AC2" s="5" t="n">
         <v>0</v>
@@ -845,32 +845,32 @@
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
-          <t>TESTE INTEEGRA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Módulo Operações    -&gt; Configurações      -&gt; Configurações do sistema turismo        -&gt; Importação das vendas          -&gt; Entradas/Saídas  Para o </t>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Contrato de fornecedor/cliente</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -884,6 +884,1725 @@
         </is>
       </c>
       <c r="AQ2" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>22250868</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>23117677</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>45803.52385416667</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>45803.74337962963</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>57KO5G</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>FEE+TAXAS</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>45803.52361111111</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>559.39</v>
+      </c>
+      <c r="AI3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ3" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK3" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL3" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM3" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN3" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO3" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP3" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ3" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>22250868</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>23117680</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>ACC03</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>45803.52385416667</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>45803.74337962963</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>57KO5G</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>SERVICO</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>45803.52361111111</v>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z4" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>8400</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ4" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK4" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL4" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM4" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN4" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO4" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP4" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ4" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>22250868</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>23117685</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>ACC04</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>45803.52385416667</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>45803.74337962963</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>57KO5G</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>FEE+TAXAS</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>45803.52361111111</v>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="AI5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ5" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK5" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL5" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM5" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN5" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO5" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP5" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ5" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>22250868</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>23117687</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>ACC05</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>45803.52385416667</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>45803.74337962963</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>57KO5G</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>SERVICO</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>45803.52361111111</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>21600</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL6" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM6" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN6" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO6" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>22250868</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>23117694</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>ACC06</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>45803.52385416667</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>45803.74337962963</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>57KO5G</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>FEE+TAXAS</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>45803.52361111111</v>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>83.91</v>
+      </c>
+      <c r="AI7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ7" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK7" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL7" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM7" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN7" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO7" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP7" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ7" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>22252862</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>23119666</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45803.74170138889</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>45803.76465277778</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>57XIQY</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>SERVICO</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>45803.74166666667</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z8" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>152400</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ8" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK8" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL8" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM8" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN8" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO8" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP8" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ8" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>22252862</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>23119670</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45803.74170138889</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45803.76465277778</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>57XIQY</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>FEE+TAXAS</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>45803.74166666667</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>592.02</v>
+      </c>
+      <c r="AI9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ9" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK9" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL9" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM9" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN9" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO9" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP9" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ9" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>22252862</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>23119762</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>ACC03</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45803.74170138889</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45803.76465277778</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>57XIQY</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>SERVICO</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>45803.74166666667</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>21600</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ10" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK10" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL10" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM10" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN10" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO10" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP10" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ10" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>22252862</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>23119776</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>ACC04</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>45803.74170138889</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45803.76465277778</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>57XIQY</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>FEE+TAXAS</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>Elaine Cristina Martins</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>45803.74166666667</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Inovents</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>Bat Souza Cruz</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>Itaimbe Palace Hotel</t>
+        </is>
+      </c>
+      <c r="Y11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z11" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>161323</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>803.91</v>
+      </c>
+      <c r="AI11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ11" s="5" t="inlineStr">
+        <is>
+          <t>Necessário informar a filial do cliente "Bat Souza Cruz" em seu contrato</t>
+        </is>
+      </c>
+      <c r="AK11" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="AL11" s="5" t="inlineStr">
+        <is>
+          <t>Contrato de fornecedor/cliente</t>
+        </is>
+      </c>
+      <c r="AM11" s="5" t="inlineStr">
+        <is>
+          <t>Análise Cadastro</t>
+        </is>
+      </c>
+      <c r="AN11" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO11" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP11" s="5" t="inlineStr">
+        <is>
+          <t>INOVENTS</t>
+        </is>
+      </c>
+      <c r="AQ11" s="5" t="inlineStr">
         <is>
           <t>INOVENTS</t>
         </is>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - INOVENTS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - INOVENTS.xlsx
@@ -700,21 +700,21 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>22306363</v>
+        <v>3113331</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>23164536</v>
+        <v>23228848</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45812.84773148148</v>
+        <v>41285.38472222222</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45812.84824074074</v>
+        <v>45819.47986111111</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
@@ -723,40 +723,40 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>31 dias ou +</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">152786-396021-K </t>
+          <t>NZUSQD</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>Solicitante Teste</t>
+          <t>NATALIA PAULA GOMES</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>Michelle Ribeiro Viana Brambilla</t>
+          <t>Daniel Merguliano</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>Michelle Ribeiro Viana Brambilla</t>
+          <t>Mauro Vitorino da Silva</t>
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45812.84722222222</v>
+        <v>45813</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
-          <t>PO TESTE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O2" s="5" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
         <is>
-          <t>Serviço</t>
+          <t>Aéreo</t>
         </is>
       </c>
       <c r="T2" s="5" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="U2" s="5" t="inlineStr">
         <is>
-          <t>Kontik</t>
+          <t>Grupo Vertex</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Kontik Franstur - Matriz/sao Paulo</t>
+          <t>Vertex Farmaceutica do Brasil</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -806,33 +806,33 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Gran Estanplaza Berrini</t>
-        </is>
-      </c>
-      <c r="Y2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>2139109753</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>INOVENTS</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="n">
-        <v>152786</v>
+      <c r="AA2" s="5" t="inlineStr">
+        <is>
+          <t>ID164965</t>
+        </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>2000</v>
+        <v>4023.05</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>200</v>
+        <v>97.84</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>0</v>
+        <v>402.3</v>
       </c>
       <c r="AF2" s="5" t="n">
         <v>0</v>
@@ -841,36 +841,36 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>319.88</v>
+        <v>54.72</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
-          <t>TESTE INTEEGRA - INTEGRAÇÃO BENNER</t>
+          <t>Reserva importada via planilha. Solicitação: |PC:</t>
         </is>
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>Necessário inserir pelo menos um registro em Vendas Documentos</t>
+          <t>Empenho/departamento não preenchido! (ACC02) Requisição não preenchida! (</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Não identificado</t>
+          <t>Mais de um campo não preenchido</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Análise Benner</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
